--- a/Data/aearep-854/candidatepackages.xlsx
+++ b/Data/aearep-854/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,27 +22,15 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
+    <t>lambda</t>
   </si>
   <si>
     <t>seq</t>
   </si>
   <si>
-    <t>lambda</t>
-  </si>
-  <si>
     <t>sq</t>
   </si>
   <si>
@@ -52,18 +40,6 @@
     <t>spell</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -76,27 +52,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-854</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-854/Appendix</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-854/Tables-and-Figure</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-854/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>Table_C2.do</t>
   </si>
   <si>
@@ -104,9 +68,6 @@
   </si>
   <si>
     <t>estimations.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -150,7 +111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -158,13 +119,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -184,7 +145,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -196,10 +157,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D4"/>
     </row>
@@ -208,10 +169,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>411</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.13586777448654175</v>
       </c>
       <c r="D5"/>
     </row>
@@ -220,10 +181,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>267</v>
+        <v>525</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D6"/>
     </row>
@@ -232,10 +193,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>279</v>
+        <v>563</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D7"/>
     </row>
@@ -244,108 +205,12 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>385</v>
+        <v>751</v>
       </c>
       <c r="C8">
-        <v>0.12765252590179443</v>
+        <v>0.24826446175575256</v>
       </c>
       <c r="D8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>417</v>
-      </c>
-      <c r="C9">
-        <v>0.13826259970664978</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>563</v>
-      </c>
-      <c r="C10">
-        <v>0.18667109310626984</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>566</v>
-      </c>
-      <c r="C11">
-        <v>0.18766577541828156</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>826</v>
-      </c>
-      <c r="C12">
-        <v>0.27387267351150513</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1124</v>
-      </c>
-      <c r="C13">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1798</v>
-      </c>
-      <c r="C14">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1817</v>
-      </c>
-      <c r="C15">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1859</v>
-      </c>
-      <c r="C16">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D16"/>
     </row>
   </sheetData>
 </worksheet>
@@ -353,63 +218,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
